--- a/src/main/resources/LegacyPrefixes.xlsx
+++ b/src/main/resources/LegacyPrefixes.xlsx
@@ -75,9 +75,6 @@
     <t>CGMH17</t>
   </si>
   <si>
-    <t xml:space="preserve"> CGH18</t>
-  </si>
-  <si>
     <t>CSH11</t>
   </si>
   <si>
@@ -101,6 +98,10 @@
   </si>
   <si>
     <t>TpeVGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGH18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,14 +481,14 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -582,42 +583,42 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/LegacyPrefixes.xlsx
+++ b/src/main/resources/LegacyPrefixes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>NTUH14</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>CGH18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BABEBIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +127,11 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -478,147 +488,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
